--- a/fhir/ig/urgencia/StructureDefinition-acompanante-urgencia.xlsx
+++ b/fhir/ig/urgencia/StructureDefinition-acompanante-urgencia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="386">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>ProfileRelatedPerson</t>
+    <t>Acompañante</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-27T17:49:18-04:00</t>
+    <t>2024-08-29T09:57:29-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,7 +90,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Información de contacto de una persona relacionada con el paciente en caso de urgencia.</t>
+    <t>Infoprmación del acompañante del paciente que acude a una unidad de urgencias.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -547,7 +547,7 @@
     <t>Relación con el paciente</t>
   </si>
   <si>
-    <t>Relación con el paciente en caso de urgencia.</t>
+    <t>Tipo de relación que tiene el acompañante con el paciente.</t>
   </si>
   <si>
     <t>We need to know the relationship with the patient since it influences the interpretation of the information attributed to this person.</t>
@@ -734,14 +734,11 @@
     <t>SegundoApellido</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://proceso-urgencia.minsal.cl/StructureDefinition/segundo-apellido}
+    <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/SegundoApellido}
 </t>
   </si>
   <si>
     <t>Segundo Apellido</t>
-  </si>
-  <si>
-    <t>Segundo apellido del paciente</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1568,7 +1565,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.48046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="74.37890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4080,7 +4077,7 @@
         <v>232</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4140,7 +4137,7 @@
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>137</v>
@@ -4157,10 +4154,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4186,10 +4183,10 @@
         <v>185</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4213,34 +4210,34 @@
         <v>22</v>
       </c>
       <c r="W24" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4266,14 +4263,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4295,13 +4292,13 @@
         <v>185</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4351,7 +4348,7 @@
         <v>22</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4366,21 +4363,21 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>247</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4406,10 +4403,10 @@
         <v>185</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4460,7 +4457,7 @@
         <v>22</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4475,21 +4472,21 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>253</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4515,10 +4512,10 @@
         <v>185</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4569,7 +4566,7 @@
         <v>22</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4584,21 +4581,21 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>259</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4621,17 +4618,17 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>22</v>
@@ -4680,7 +4677,7 @@
         <v>22</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4695,21 +4692,21 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>267</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4732,19 +4729,19 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>22</v>
@@ -4781,10 +4778,10 @@
         <v>22</v>
       </c>
       <c r="AB29" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AC29" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>22</v>
@@ -4793,7 +4790,7 @@
         <v>194</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4808,24 +4805,24 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>277</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="C30" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>22</v>
@@ -4847,19 +4844,19 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="N30" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O30" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>22</v>
@@ -4908,7 +4905,7 @@
         <v>22</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4923,21 +4920,21 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>277</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5043,10 +5040,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5154,10 +5151,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5183,10 +5180,10 @@
         <v>106</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5198,7 +5195,7 @@
         <v>22</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>22</v>
@@ -5216,57 +5213,57 @@
         <v>172</v>
       </c>
       <c r="Y33" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Z33" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="Z33" t="s" s="2">
+      <c r="AA33" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AA33" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AF33" t="s" s="2">
+      <c r="AG33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI33" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>296</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5292,16 +5289,16 @@
         <v>185</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>22</v>
@@ -5350,7 +5347,7 @@
         <v>22</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5365,21 +5362,21 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>305</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5405,16 +5402,16 @@
         <v>106</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>22</v>
@@ -5424,7 +5421,7 @@
         <v>22</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>22</v>
@@ -5442,28 +5439,28 @@
         <v>172</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Z35" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="Z35" t="s" s="2">
+      <c r="AA35" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5484,15 +5481,15 @@
         <v>22</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5515,16 +5512,16 @@
         <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5574,7 +5571,7 @@
         <v>22</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5600,10 +5597,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5626,13 +5623,13 @@
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5683,7 +5680,7 @@
         <v>22</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5698,7 +5695,7 @@
         <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>22</v>
@@ -5709,10 +5706,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5738,14 +5735,14 @@
         <v>106</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>22</v>
@@ -5773,11 +5770,11 @@
         <v>172</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="AA38" t="s" s="2">
         <v>22</v>
       </c>
@@ -5794,7 +5791,7 @@
         <v>22</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5809,21 +5806,21 @@
         <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>336</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5846,13 +5843,13 @@
         <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5903,7 +5900,7 @@
         <v>22</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5918,7 +5915,7 @@
         <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>22</v>
@@ -5929,10 +5926,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5955,17 +5952,17 @@
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>22</v>
@@ -6014,7 +6011,7 @@
         <v>22</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6029,21 +6026,21 @@
         <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>348</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6066,17 +6063,17 @@
         <v>22</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>22</v>
@@ -6125,7 +6122,7 @@
         <v>22</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6140,21 +6137,21 @@
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>355</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6177,13 +6174,13 @@
         <v>22</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6234,7 +6231,7 @@
         <v>22</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6249,10 +6246,10 @@
         <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>22</v>
@@ -6260,10 +6257,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6286,19 +6283,19 @@
         <v>22</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>22</v>
@@ -6347,7 +6344,7 @@
         <v>22</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6362,7 +6359,7 @@
         <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>22</v>
@@ -6373,10 +6370,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6482,10 +6479,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6593,14 +6590,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6622,10 +6619,10 @@
         <v>132</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>135</v>
@@ -6680,7 +6677,7 @@
         <v>22</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6706,10 +6703,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6735,16 +6732,16 @@
         <v>168</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>22</v>
@@ -6793,7 +6790,7 @@
         <v>22</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>86</v>
@@ -6808,7 +6805,7 @@
         <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>22</v>
@@ -6819,10 +6816,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6848,16 +6845,16 @@
         <v>152</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>22</v>
@@ -6906,7 +6903,7 @@
         <v>22</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -6921,7 +6918,7 @@
         <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>22</v>
